--- a/Application/Input/parameter_input.xlsx
+++ b/Application/Input/parameter_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.volvocars.net/personal/xyang118_volvocars_com/Documents/Documents/glance_simulation/stats/Active-Sampling/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaomiyang/Documents/GitHub/SubmittedActiveSamplingforTechnometrics/ActiveSampling/Application/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{AB1E9940-BE62-4AF0-B6E2-60C22A94505E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDB04D3C-6941-4AA9-9B20-91031FE594BB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DA1111-B652-8641-A688-8EBA86A7AFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Sim_n</t>
-  </si>
-  <si>
     <t>batch_size</t>
   </si>
   <si>
     <t>nboot</t>
+  </si>
+  <si>
+    <t>n_repetition</t>
   </si>
 </sst>
 </file>
@@ -69,12 +69,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -93,9 +92,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -133,7 +132,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -239,7 +238,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -381,7 +380,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -389,47 +388,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK2"/>
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.44140625" style="1" customWidth="1"/>
-    <col min="6" max="1025" width="8.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5" style="1" customWidth="1"/>
+    <col min="6" max="1025" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1"/>
+      <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" spans="1:5" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Application/Input/parameter_input.xlsx
+++ b/Application/Input/parameter_input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaomiyang/Documents/GitHub/SubmittedActiveSamplingforTechnometrics/ActiveSampling/Application/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaomiyang/Documents/GitHub/Check reproducibility/ActiveSampling/Application/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DA1111-B652-8641-A688-8EBA86A7AFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5127F3-9348-4E4D-863B-01CE5FE07BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -419,13 +419,13 @@
     </row>
     <row r="2" spans="1:5" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>

--- a/Application/Input/parameter_input.xlsx
+++ b/Application/Input/parameter_input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaomiyang/Documents/GitHub/Check reproducibility/ActiveSampling/Application/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5127F3-9348-4E4D-863B-01CE5FE07BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A01F3A-AB0E-0446-973A-19A7EAE78DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,7 +425,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
